--- a/benchmark_graph.xlsx
+++ b/benchmark_graph.xlsx
@@ -5,10 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="100K" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10k" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="10K_tol_2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t xml:space="preserve">Alg</t>
   </si>
@@ -51,6 +53,12 @@
   <si>
     <t xml:space="preserve">sgd minibatch</t>
   </si>
+  <si>
+    <t xml:space="preserve">Backtracking_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking_1</t>
+  </si>
 </sst>
 </file>
 
@@ -59,11 +67,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,6 +91,11 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -273,6 +287,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -283,7 +298,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>100K!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -303,7 +318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>100K!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -325,11 +340,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="10826795"/>
-        <c:axId val="20808459"/>
+        <c:axId val="25277166"/>
+        <c:axId val="39251699"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10826795"/>
+        <c:axId val="25277166"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20808459"/>
+        <c:crossAx val="39251699"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -393,7 +408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20808459"/>
+        <c:axId val="39251699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +451,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -458,7 +473,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10826795"/>
+        <c:crossAx val="25277166"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -478,14 +493,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -548,6 +563,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -558,19 +574,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>10K_tol_2!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking_20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -578,21 +597,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>10K_tol_2!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>565.017291080934</c:v>
+                  <c:v>51.6831820130148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.2358023291565</c:v>
+                  <c:v>2.36373358429225</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.8364151369566</c:v>
+                  <c:v>17.0998368390881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.02247273882</c:v>
+                  <c:v>10.6326620446792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.531872265609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,11 +622,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="54282884"/>
-        <c:axId val="90019915"/>
+        <c:axId val="80874983"/>
+        <c:axId val="18574423"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54282884"/>
+        <c:axId val="80874983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +682,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90019915"/>
+        <c:crossAx val="18574423"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -668,7 +690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90019915"/>
+        <c:axId val="18574423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -711,7 +733,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -733,7 +755,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54282884"/>
+        <c:crossAx val="80874983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,14 +775,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -823,6 +845,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -833,19 +856,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>10K_tol_2!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking_20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -853,21 +879,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>10K_tol_2!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2050</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85000</c:v>
+                  <c:v>610</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000</c:v>
+                  <c:v>7680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -875,11 +904,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="88056936"/>
-        <c:axId val="15884779"/>
+        <c:axId val="94840359"/>
+        <c:axId val="36323607"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88056936"/>
+        <c:axId val="94840359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +964,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15884779"/>
+        <c:crossAx val="36323607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="15884779"/>
+        <c:axId val="36323607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +1015,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1008,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88056936"/>
+        <c:crossAx val="94840359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1028,14 +1057,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1098,6 +1127,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1108,19 +1138,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>10K_tol_2!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking_20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -1128,21 +1161,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>10K_tol_2!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.970031545741325</c:v>
+                  <c:v>0.958990536277602</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.95583596214511</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.971608832807571</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.970031545741325</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.970031545741325</c:v>
+                  <c:v>0.946372239747634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.957413249211356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,11 +1186,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="79477058"/>
-        <c:axId val="8804656"/>
+        <c:axId val="82807691"/>
+        <c:axId val="32615878"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79477058"/>
+        <c:axId val="82807691"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1246,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8804656"/>
+        <c:crossAx val="32615878"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8804656"/>
+        <c:axId val="32615878"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1297,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1283,7 +1319,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79477058"/>
+        <c:crossAx val="82807691"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1339,2221 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Algorithm time ratio sklearn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>100K!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>100K!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>565.017291080934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.2358023291565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.8364151369566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>429.02247273882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="25780483"/>
+        <c:axId val="93443121"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="25780483"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93443121"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93443121"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25780483"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Outer loop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>100K!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>100K!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="81972021"/>
+        <c:axId val="11566136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="81972021"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11566136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11566136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81972021"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>100K!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>100K!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.970031545741325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.971608832807571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.970031545741325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.970031545741325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="55407153"/>
+        <c:axId val="58220889"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55407153"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58220889"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58220889"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Acuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55407153"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Algorithm time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>10k!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>10k!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.819464492797852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.737984764575958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.962145110410095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.538699698448181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="70049015"/>
+        <c:axId val="12616356"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70049015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12616356"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12616356"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70049015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Algorithm time ratio sklearn</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>10k!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>10k!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>69.8981285366384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.2358023291567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.1175843944853</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.2908979159092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="64037022"/>
+        <c:axId val="53964882"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64037022"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53964882"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53964882"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64037022"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Outer loop</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>10k!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>10k!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="93628347"/>
+        <c:axId val="83030879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93628347"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83030879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="83030879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93628347"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>10k!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>backtracking</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>10k!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.958990536277602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.971608832807571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.949526813880126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.954258675078864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39370617"/>
+        <c:axId val="7244476"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39370617"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7244476"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7244476"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Acuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39370617"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Algorithm time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>10K_tol_2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>gd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Backtracking_20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Backtracking_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sgd</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sgd minibatch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>10K_tol_2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.632450819015502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0263485908508301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1849045753479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115178823471069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.554316997528076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="11650860"/>
+        <c:axId val="64454522"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="11650860"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64454522"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64454522"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11650860"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1321,9 +3571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>576720</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1332,7 +3582,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="871560" y="1979640"/>
-        <a:ext cx="5767920" cy="3241800"/>
+        <a:ext cx="5775120" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1351,9 +3601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>70200</xdr:colOff>
+      <xdr:colOff>69840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1361,8 +3611,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7680240" y="2046600"/>
-        <a:ext cx="5767920" cy="3241800"/>
+        <a:off x="7689240" y="2046600"/>
+        <a:ext cx="5777640" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1381,9 +3631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1392,7 +3642,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="910440" y="5823720"/>
-        <a:ext cx="5767920" cy="3241800"/>
+        <a:ext cx="5775120" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1411,9 +3661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1421,8 +3671,258 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7660440" y="5747760"/>
-        <a:ext cx="5767920" cy="3241800"/>
+        <a:off x="7669440" y="5747760"/>
+        <a:ext cx="5777640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>871560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="871560" y="1979640"/>
+        <a:ext cx="5775120" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7689240" y="2046600"/>
+        <a:ext cx="5777640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>910440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="910440" y="5823720"/>
+        <a:ext cx="5775120" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7669440" y="5747760"/>
+        <a:ext cx="5777640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>871560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="871560" y="2142360"/>
+        <a:ext cx="5775120" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7689240" y="2209320"/>
+        <a:ext cx="5777640" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>910440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615240</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="910440" y="5986440"/>
+        <a:ext cx="5775120" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7669440" y="5910480"/>
+        <a:ext cx="5777640" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1442,11 +3942,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S49" activeCellId="0" sqref="S49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
   </cols>
@@ -1483,7 +3983,7 @@
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">C2/B2</f>
-        <v>565.017291080934</v>
+        <v>565.017291080932</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.970031545741325</v>
@@ -1504,7 +4004,7 @@
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">C3/B3</f>
-        <v>63.2358023291565</v>
+        <v>63.2358023291567</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0.971608832807571</v>
@@ -1525,7 +4025,7 @@
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">C4/B4</f>
-        <v>63.8364151369566</v>
+        <v>63.8364151369567</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.970031545741325</v>
@@ -1546,7 +4046,7 @@
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">C5/B5</f>
-        <v>429.02247273882</v>
+        <v>429.022472738822</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.970031545741325</v>
@@ -1565,4 +4065,289 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0117236971855164</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.819464492797852</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">C2/B2</f>
+        <v>69.8981285366384</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.958990536277602</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0116703629493713</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.737984764575958</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">C3/B3</f>
+        <v>63.2358023291567</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.971608832807571</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0117166757583618</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.962145110410095</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">C4/B4</f>
+        <v>82.1175843944853</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.949526813880126</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>10136</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.011637270450592</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.538699698448181</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">C5/B5</f>
+        <v>46.2908979159092</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.954258675078864</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.0122370719909668</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.632450819015502</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">C2/B2</f>
+        <v>51.6831820130148</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.958990536277602</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.0111470222473145</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.0263485908508301</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">C3/B3</f>
+        <v>2.36373358429225</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.95583596214511</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0108132362365723</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.1849045753479</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">C4/B4</f>
+        <v>17.0998368390881</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.971608832807571</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.0108325481414795</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.115178823471069</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">C5/B5</f>
+        <v>10.6326620446792</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.946372239747634</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0116620063781738</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.554316997528076</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">C6/B6</f>
+        <v>47.531872265609</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.957413249211356</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmark_graph.xlsx
+++ b/benchmark_graph.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t xml:space="preserve">Alg</t>
   </si>
@@ -45,13 +45,22 @@
     <t xml:space="preserve">gd</t>
   </si>
   <si>
-    <t xml:space="preserve">backtracking</t>
+    <t xml:space="preserve">Backtracking 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backtracking 1</t>
   </si>
   <si>
     <t xml:space="preserve">sgd</t>
   </si>
   <si>
     <t xml:space="preserve">sgd minibatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backtracking 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backtracking 1</t>
   </si>
   <si>
     <t xml:space="preserve">Backtracking_20</t>
@@ -147,7 +156,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,19 +315,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>100K!$A$2:$A$5</c:f>
+              <c:f>100K!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -318,21 +338,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>100K!$C$2:$C$5</c:f>
+              <c:f>100K!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.62409162521362</c:v>
+                  <c:v>6.34343276023865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.737984764575958</c:v>
+                  <c:v>1.08236367702484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.747950577735901</c:v>
+                  <c:v>9.38822908401489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9926505446434</c:v>
+                  <c:v>0.402678728103638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2626179933548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,11 +363,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25277166"/>
-        <c:axId val="39251699"/>
+        <c:axId val="75920349"/>
+        <c:axId val="20923036"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25277166"/>
+        <c:axId val="75920349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +423,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39251699"/>
+        <c:crossAx val="20923036"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -408,7 +431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39251699"/>
+        <c:axId val="20923036"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +496,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25277166"/>
+        <c:crossAx val="75920349"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,19 +625,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>51.6831820130148</c:v>
+                  <c:v>52.6438919845692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.36373358429225</c:v>
+                  <c:v>2.67524646378054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.0998368390881</c:v>
+                  <c:v>15.0247126212836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.6326620446792</c:v>
+                  <c:v>7.64725675096442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.531872265609</c:v>
+                  <c:v>42.8065366480926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,11 +645,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="80874983"/>
-        <c:axId val="18574423"/>
+        <c:axId val="37115217"/>
+        <c:axId val="36767877"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80874983"/>
+        <c:axId val="37115217"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +705,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18574423"/>
+        <c:crossAx val="36767877"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -690,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18574423"/>
+        <c:axId val="36767877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +778,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80874983"/>
+        <c:crossAx val="37115217"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -887,13 +910,13 @@
                   <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>610</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7680</c:v>
+                  <c:v>10136</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10000</c:v>
@@ -904,11 +927,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="94840359"/>
-        <c:axId val="36323607"/>
+        <c:axId val="18222254"/>
+        <c:axId val="12680747"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94840359"/>
+        <c:axId val="18222254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,7 +987,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36323607"/>
+        <c:crossAx val="12680747"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -972,7 +995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36323607"/>
+        <c:axId val="12680747"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94840359"/>
+        <c:crossAx val="18222254"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1166,19 +1189,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.958990536277602</c:v>
+                  <c:v>0.976340694006309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95583596214511</c:v>
+                  <c:v>0.965299684542587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.971608832807571</c:v>
+                  <c:v>0.976340694006309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.946372239747634</c:v>
+                  <c:v>0.974763406940063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.957413249211356</c:v>
+                  <c:v>0.979495268138801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,11 +1209,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82807691"/>
-        <c:axId val="32615878"/>
+        <c:axId val="96650028"/>
+        <c:axId val="62181097"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82807691"/>
+        <c:axId val="96650028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1269,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32615878"/>
+        <c:crossAx val="62181097"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1254,7 +1277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32615878"/>
+        <c:axId val="62181097"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1342,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82807691"/>
+        <c:crossAx val="96650028"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,19 +1443,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>100K!$A$2:$A$5</c:f>
+              <c:f>100K!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -1440,21 +1466,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>100K!$D$2:$D$5</c:f>
+              <c:f>100K!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>565.017291080934</c:v>
+                  <c:v>441.815889326357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.2358023291565</c:v>
+                  <c:v>75.3859130558964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.8364151369566</c:v>
+                  <c:v>653.883936147777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.02247273882</c:v>
+                  <c:v>28.0463066441051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>366.537856835652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,11 +1491,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="25780483"/>
-        <c:axId val="93443121"/>
+        <c:axId val="54494200"/>
+        <c:axId val="83440792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="25780483"/>
+        <c:axId val="54494200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93443121"/>
+        <c:crossAx val="83440792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93443121"/>
+        <c:axId val="83440792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1624,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25780483"/>
+        <c:crossAx val="54494200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1696,19 +1725,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>100K!$A$2:$A$5</c:f>
+              <c:f>100K!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -1716,20 +1748,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>100K!$F$2:$F$5</c:f>
+              <c:f>100K!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2050</c:v>
+                  <c:v>2830</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85000</c:v>
+                  <c:v>29180</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>40140</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1738,11 +1773,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="81972021"/>
-        <c:axId val="11566136"/>
+        <c:axId val="19037843"/>
+        <c:axId val="6967381"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81972021"/>
+        <c:axId val="19037843"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11566136"/>
+        <c:crossAx val="6967381"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11566136"/>
+        <c:axId val="6967381"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1906,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81972021"/>
+        <c:crossAx val="19037843"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1972,19 +2007,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>100K!$A$2:$A$5</c:f>
+              <c:f>100K!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>Backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -1992,20 +2030,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>100K!$E$2:$E$5</c:f>
+              <c:f>100K!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.970031545741325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.971608832807571</c:v>
+                  <c:v>0.977917981072555</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.979495268138801</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.970031545741325</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.970031545741325</c:v>
                 </c:pt>
               </c:numCache>
@@ -2014,11 +2055,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="55407153"/>
-        <c:axId val="58220889"/>
+        <c:axId val="51704448"/>
+        <c:axId val="17554952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55407153"/>
+        <c:axId val="51704448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58220889"/>
+        <c:crossAx val="17554952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2082,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58220889"/>
+        <c:axId val="17554952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55407153"/>
+        <c:crossAx val="51704448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2248,19 +2289,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$5</c:f>
+              <c:f>10k!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -2268,21 +2312,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$C$2:$C$5</c:f>
+              <c:f>10k!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.819464492797852</c:v>
+                  <c:v>0.631150388717651</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.737984764575958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.962145110410095</c:v>
+                  <c:v>3.35571217536926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.538699698448181</c:v>
+                  <c:v>0.105812501907349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52268590927124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2290,11 +2337,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="70049015"/>
-        <c:axId val="12616356"/>
+        <c:axId val="60163075"/>
+        <c:axId val="52098575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70049015"/>
+        <c:axId val="60163075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2397,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12616356"/>
+        <c:crossAx val="52098575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12616356"/>
+        <c:axId val="52098575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2470,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70049015"/>
+        <c:crossAx val="60163075"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2524,19 +2571,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$5</c:f>
+              <c:f>10k!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -2544,21 +2594,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$D$2:$D$5</c:f>
+              <c:f>10k!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69.8981285366384</c:v>
+                  <c:v>49.3505327032242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.2358023291567</c:v>
+                  <c:v>57.70406215337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.1175843944853</c:v>
+                  <c:v>262.387834046401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.2908979159092</c:v>
+                  <c:v>8.27362769497497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.8695431708659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,11 +2619,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="64037022"/>
-        <c:axId val="53964882"/>
+        <c:axId val="62117563"/>
+        <c:axId val="92713270"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64037022"/>
+        <c:axId val="62117563"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2679,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53964882"/>
+        <c:crossAx val="92713270"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2634,7 +2687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53964882"/>
+        <c:axId val="92713270"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2699,7 +2752,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64037022"/>
+        <c:crossAx val="62117563"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,19 +2853,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$5</c:f>
+              <c:f>10k!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -2820,10 +2876,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$F$2:$F$5</c:f>
+              <c:f>10k!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>10000</c:v>
                 </c:pt>
@@ -2831,9 +2887,12 @@
                   <c:v>2050</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10136</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2842,11 +2901,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="93628347"/>
-        <c:axId val="83030879"/>
+        <c:axId val="27304413"/>
+        <c:axId val="39905159"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93628347"/>
+        <c:axId val="27304413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2961,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83030879"/>
+        <c:crossAx val="39905159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2910,7 +2969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83030879"/>
+        <c:axId val="39905159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2975,7 +3034,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93628347"/>
+        <c:crossAx val="27304413"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,19 +3135,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>10k!$A$2:$A$5</c:f>
+              <c:f>10k!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>gd</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>backtracking</c:v>
+                  <c:v>backtracking 20</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>backtracking 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>sgd</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>sgd minibatch</c:v>
                 </c:pt>
               </c:strCache>
@@ -3096,21 +3158,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>10k!$E$2:$E$5</c:f>
+              <c:f>10k!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.958990536277602</c:v>
+                  <c:v>0.976340694006309</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.971608832807571</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.949526813880126</c:v>
+                  <c:v>0.981072555205047</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.954258675078864</c:v>
+                  <c:v>0.976340694006309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.976340694006309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,11 +3183,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="39370617"/>
-        <c:axId val="7244476"/>
+        <c:axId val="3929737"/>
+        <c:axId val="79063057"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39370617"/>
+        <c:axId val="3929737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,7 +3243,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7244476"/>
+        <c:crossAx val="79063057"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3186,7 +3251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7244476"/>
+        <c:axId val="79063057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3251,7 +3316,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39370617"/>
+        <c:crossAx val="3929737"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3380,19 +3445,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.632450819015502</c:v>
+                  <c:v>0.644207096099853</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0263485908508301</c:v>
+                  <c:v>0.0327371835708618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1849045753479</c:v>
+                  <c:v>0.183858489990234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.115178823471069</c:v>
+                  <c:v>0.0935800313949585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.554316997528076</c:v>
+                  <c:v>0.523826670646667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,11 +3465,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="11650860"/>
-        <c:axId val="64454522"/>
+        <c:axId val="65733301"/>
+        <c:axId val="96970267"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11650860"/>
+        <c:axId val="65733301"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3460,7 +3525,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64454522"/>
+        <c:crossAx val="96970267"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3468,7 +3533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64454522"/>
+        <c:axId val="96970267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3533,7 +3598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11650860"/>
+        <c:crossAx val="65733301"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3566,14 +3631,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>871560</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:colOff>576000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3581,8 +3646,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="871560" y="1979640"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:off x="871560" y="2142360"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3595,15 +3660,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>804960</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3611,8 +3676,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7689240" y="2046600"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7698240" y="2209320"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3626,14 +3691,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>910440</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>615240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>614880</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3641,8 +3706,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="910440" y="5823720"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:off x="910440" y="5986440"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3655,15 +3720,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>785160</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3671,8 +3736,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7669440" y="5747760"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7678440" y="5910480"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3691,14 +3756,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>871560</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:colOff>576000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3706,8 +3771,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="871560" y="1979640"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:off x="871560" y="2142360"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3720,15 +3785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>804600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>804960</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3736,8 +3801,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7689240" y="2046600"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7698240" y="2209320"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3751,14 +3816,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>910440</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>615240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>614880</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3766,8 +3831,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="910440" y="5823720"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:off x="910440" y="5986440"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3780,15 +3845,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>785160</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>50040</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3796,8 +3861,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7669440" y="5747760"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7678440" y="5910480"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3821,9 +3886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>576360</xdr:colOff>
+      <xdr:colOff>576000</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3832,7 +3897,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="871560" y="2142360"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3851,9 +3916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3861,8 +3926,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7689240" y="2209320"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7697880" y="2209320"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3881,9 +3946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>615240</xdr:colOff>
+      <xdr:colOff>614880</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3892,7 +3957,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="910440" y="5986440"/>
-        <a:ext cx="5775120" cy="3241440"/>
+        <a:ext cx="5782320" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3911,9 +3976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3921,8 +3986,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7669440" y="5910480"/>
-        <a:ext cx="5777640" cy="3241440"/>
+        <a:off x="7678080" y="5910480"/>
+        <a:ext cx="5787720" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3940,13 +4005,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
   </cols>
@@ -3976,14 +4041,14 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0117236971855164</v>
+        <v>0.0143576383590698</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6.62409162521362</v>
+        <v>6.34343276023865</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">C2/B2</f>
-        <v>565.017291080932</v>
+        <v>441.815889326357</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0.970031545741325</v>
@@ -3992,46 +4057,46 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.0116703629493713</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.737984764575958</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0.0143576383590698</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1.08236367702484</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <f aca="false">C3/B3</f>
-        <v>63.2358023291567</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.971608832807571</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2050</v>
+        <v>75.3859130558964</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.977917981072555</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2830</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0117166757583618</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.747950577735901</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0.0143576383590698</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>9.38822908401489</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <f aca="false">C4/B4</f>
-        <v>63.8364151369567</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.970031545741325</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>85000</v>
+        <v>653.883936147777</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.979495268138801</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>29180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,19 +4104,40 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.011637270450592</v>
+        <v>0.0143576383590698</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>4.9926505446434</v>
+        <v>0.402678728103638</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">C5/B5</f>
-        <v>429.022472738822</v>
+        <v>28.0463066441051</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0.970031545741325</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>40140</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0143576383590698</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5.2626179933548</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">C6/B6</f>
+        <v>366.537856835652</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.970031545741325</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -4072,13 +4158,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
   </cols>
@@ -4108,17 +4194,17 @@
         <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.0117236971855164</v>
+        <v>0.0127891302108765</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.819464492797852</v>
+        <v>0.631150388717651</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">C2/B2</f>
-        <v>69.8981285366384</v>
+        <v>49.3505327032242</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.958990536277602</v>
+        <v>0.976340694006309</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10000</v>
@@ -4126,17 +4212,17 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0116703629493713</v>
+        <v>0.0127891302108765</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.737984764575958</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">C3/B3</f>
-        <v>63.2358023291567</v>
+        <v>57.70406215337</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0.971608832807571</v>
@@ -4147,23 +4233,23 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0117166757583618</v>
+        <v>0.0127891302108765</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.962145110410095</v>
+        <v>3.35571217536926</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">C4/B4</f>
-        <v>82.1175843944853</v>
+        <v>262.387834046401</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.949526813880126</v>
+        <v>0.981072555205047</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10136</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,19 +4257,40 @@
         <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.011637270450592</v>
+        <v>0.0127891302108765</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.538699698448181</v>
+        <v>0.105812501907349</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">C5/B5</f>
-        <v>46.2908979159092</v>
+        <v>8.27362769497497</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.954258675078864</v>
+        <v>0.976340694006309</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>10136</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0127891302108765</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.52268590927124</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">C6/B6</f>
+        <v>40.8695431708659</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.976340694006309</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -4206,11 +4313,11 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.81"/>
   </cols>
@@ -4243,14 +4350,14 @@
         <v>0.0122370719909668</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.632450819015502</v>
+        <v>0.644207096099853</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">C2/B2</f>
-        <v>51.6831820130148</v>
+        <v>52.6438919845692</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.958990536277602</v>
+        <v>0.976340694006309</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10000</v>
@@ -4258,83 +4365,83 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.0111470222473145</v>
+        <v>0.0122370719909668</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.0263485908508301</v>
+        <v>0.0327371835708618</v>
       </c>
       <c r="D3" s="0" t="n">
         <f aca="false">C3/B3</f>
-        <v>2.36373358429225</v>
+        <v>2.67524646378054</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>0.95583596214511</v>
+        <v>0.965299684542587</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.0108132362365723</v>
+        <v>0.0122370719909668</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1849045753479</v>
+        <v>0.183858489990234</v>
       </c>
       <c r="D4" s="0" t="n">
         <f aca="false">C4/B4</f>
-        <v>17.0998368390881</v>
+        <v>15.0247126212836</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.971608832807571</v>
+        <v>0.976340694006309</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.0108325481414795</v>
+        <v>0.0122370719909668</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.115178823471069</v>
+        <v>0.0935800313949585</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">C5/B5</f>
-        <v>10.6326620446792</v>
+        <v>7.64725675096442</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>0.946372239747634</v>
+        <v>0.974763406940063</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>7680</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.0116620063781738</v>
+        <v>0.0122370719909668</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.554316997528076</v>
+        <v>0.523826670646667</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">C6/B6</f>
-        <v>47.531872265609</v>
+        <v>42.8065366480926</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.957413249211356</v>
+        <v>0.979495268138801</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>10000</v>
